--- a/DOSES.xlsx
+++ b/DOSES.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
   <si>
     <t>Active Ingredient</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>Seizures, Trigeminal Neuralgia, Bipolar Disorder. Dosing is guided by serum levels. Requires slow titration.</t>
+  </si>
+  <si>
+    <t>2–10 mg once daily. Maximum dose typically 10 mg/day.</t>
+  </si>
+  <si>
+    <t>Tourette's syndrome, refractory psychosis. ECG monitoring required due to QTc prolongation risk.</t>
+  </si>
+  <si>
+    <t>Pimozide</t>
   </si>
 </sst>
 </file>
@@ -876,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,166 +1405,177 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>117</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>178</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>179</v>
       </c>
     </row>

--- a/DOSES.xlsx
+++ b/DOSES.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A451EB4-1C1D-4738-B125-62B9C7878089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
   <si>
     <t>Active Ingredient</t>
   </si>
@@ -568,12 +569,21 @@
   </si>
   <si>
     <t>Pimozide</t>
+  </si>
+  <si>
+    <t>Flumazenil</t>
+  </si>
+  <si>
+    <t>"Varies by indication, administered IV. **Reversal of Sedation (Adult):** Initial dose 0.2 mg over 15 seconds. May repeat 0.2 mg at 60-second intervals up to a maximum total dose of 1 mg. **Suspected Overdose (Adult):** Initial dose 0.2 mg over 30 seconds. If no response after 30 seconds, administer 0.3 mg. If no response, subsequent doses of 0.5 mg at 1-minute intervals up to a maximum total cumulative dose of 3 mg."</t>
+  </si>
+  <si>
+    <t>"Benzodiazepine Antagonist. Used to reverse sedation from benzodiazepines. Its short half-life (40-80 min) often leads to **resedation**, requiring repeat dosing or a continuous IV infusion. Use is **contraindicated** in patients with suspected serious tricyclic antidepressant overdose, or in those relying on benzodiazepines to control a life-threatening condition (e.g., status epilepticus) due to the risk of precipitating seizures."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,386 +1206,397 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>117</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>179</v>
       </c>
     </row>
